--- a/data/09-10-2025-lookup_types.xlsx
+++ b/data/09-10-2025-lookup_types.xlsx
@@ -367,949 +367,949 @@
     <t>e40c2549-11ec-485d-a67a-8261fcaec68a</t>
   </si>
   <si>
+    <t>Baseband Unit</t>
+  </si>
+  <si>
+    <t>BBU</t>
+  </si>
+  <si>
+    <t>BBUs are typically part of BSNL’s 4G/5G RAN (Radio Access Network), handling baseband processing for cellular signals. Their integration with CPAN/MAAN would align with BSNL’s shift toward IP-based aggregation</t>
+  </si>
+  <si>
+    <t>944f170d-da50-41e6-9040-dea5f7bf9dfa</t>
+  </si>
+  <si>
+    <t>SPLICE_TYPES</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>A direct, one-to-one connection between two fibers.</t>
+  </si>
+  <si>
+    <t>a54cf3ef-aabf-4c07-a611-f297ee78136e</t>
+  </si>
+  <si>
+    <t>t_joint</t>
+  </si>
+  <si>
+    <t>tj</t>
+  </si>
+  <si>
+    <t>A splice that connects one fiber to two or more other fibers (e.g., using a splitter)</t>
+  </si>
+  <si>
+    <t>764fb14f-c510-454c-b341-045e3337200c</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>crs</t>
+  </si>
+  <si>
+    <t>A connection where fibers are intentionally crossed (e.g., fiber 1 to fiber 2).</t>
+  </si>
+  <si>
+    <t>a1396206-9345-4b65-b7cb-b079e9e2731e</t>
+  </si>
+  <si>
+    <t>2F Armored</t>
+  </si>
+  <si>
+    <t>2F-A</t>
+  </si>
+  <si>
+    <t>Two-core steel-armored optical fiber cable for underground routes.</t>
+  </si>
+  <si>
+    <t>d6d2e8dc-eb8b-4dde-ae35-b51e66223d89</t>
+  </si>
+  <si>
+    <t>MEDIA_TYPES</t>
+  </si>
+  <si>
+    <t>Coaxial Cable</t>
+  </si>
+  <si>
+    <t>COAX</t>
+  </si>
+  <si>
+    <t>Cable TV and RF applications.</t>
+  </si>
+  <si>
+    <t>72068662-ba21-4879-b1c3-b76e5f31d63b</t>
+  </si>
+  <si>
+    <t>BUSINESS_AREA_TYPE</t>
+  </si>
+  <si>
+    <t>National Long Distance</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>Domestic long-distance telecom service.</t>
+  </si>
+  <si>
+    <t>3367a4e6-16e0-40d2-b7c9-7f21c96f4dc6</t>
+  </si>
+  <si>
+    <t>Retail Fixed Line</t>
+  </si>
+  <si>
+    <t>RETAIL</t>
+  </si>
+  <si>
+    <t>Landline and basic voice services.</t>
+  </si>
+  <si>
+    <t>3be43529-ead7-4052-9134-5d7df9d3d800</t>
+  </si>
+  <si>
+    <t>Mobile Services</t>
+  </si>
+  <si>
+    <t>MOB</t>
+  </si>
+  <si>
+    <t>BSNL GSM/4G/5G mobile offerings.</t>
+  </si>
+  <si>
+    <t>12e0d487-c11c-4432-89f4-3347070046ed</t>
+  </si>
+  <si>
+    <t>International Long Distance</t>
+  </si>
+  <si>
+    <t>ILD</t>
+  </si>
+  <si>
+    <t>International telecom connectivity.</t>
+  </si>
+  <si>
+    <t>d7600972-15b4-40e8-959c-56e21df24adf</t>
+  </si>
+  <si>
+    <t>IP Television</t>
+  </si>
+  <si>
+    <t>IPTV</t>
+  </si>
+  <si>
+    <t>Video streaming and IPTV services.</t>
+  </si>
+  <si>
+    <t>f4747aaa-75f3-4ac0-b950-57569e208189</t>
+  </si>
+  <si>
+    <t>PORT_TYPES</t>
+  </si>
+  <si>
+    <t>STM-1 Port</t>
+  </si>
+  <si>
+    <t>STM1</t>
+  </si>
+  <si>
+    <t>155 Mbps optical interface in SDH.</t>
+  </si>
+  <si>
+    <t>7be2cd28-a794-4f98-b2aa-31ea6c1c6edc</t>
+  </si>
+  <si>
+    <t>MAINTENANCE_AREA_TYPES</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>ZONE</t>
+  </si>
+  <si>
+    <t>The biggest operational region in BSNL.Example: East Zone, South Zone, North Zone, West Zone.Each Zone contains multiple Circles.</t>
+  </si>
+  <si>
+    <t>3e555c07-b3c9-4c38-ba5a-b5a0476edc55</t>
+  </si>
+  <si>
+    <t>SSA (Secondary Switching Area)</t>
+  </si>
+  <si>
+    <t>SSA</t>
+  </si>
+  <si>
+    <t>District-level telecom maintenance unit.Example: Kolkata SSA, Malda SSA.Each SSA contains multiple Divisions/Sub-Divisions.</t>
+  </si>
+  <si>
+    <t>a786b612-5407-4517-a320-99a210a1ba13</t>
+  </si>
+  <si>
+    <t>Sub-Division</t>
+  </si>
+  <si>
+    <t>SUBDIV</t>
+  </si>
+  <si>
+    <t>Smaller operational units inside an DIVISION for field maintenance.</t>
+  </si>
+  <si>
+    <t>d2d2f881-26d2-4942-8347-7c0d9b9acbbf</t>
+  </si>
+  <si>
+    <t>Specialized Centers</t>
+  </si>
+  <si>
+    <t>SPECIALIZED</t>
+  </si>
+  <si>
+    <t>parallel structure.Like NOC (Network Operations Center) – Centralized monitoring hub, MSC (Mobile Switching Center) – For mobile network control, TXM Units – Transmission maintenance teams.</t>
+  </si>
+  <si>
+    <t>14b6413a-2b8a-4afa-a3a7-6d6a6deb7d43</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>CIRCLE</t>
+  </si>
+  <si>
+    <t>State/UT-level operational unit.Example: West Bengal Circle, Kerala Circle, Tamil Nadu Circle.Each Circle contains multiple SSAs.</t>
+  </si>
+  <si>
+    <t>72c229f6-2919-41cc-b5cc-911779aa9dc3</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>Smaller operational units inside an SSA for field maintenance.Often responsible for a cluster of exchanges or optical routes.</t>
+  </si>
+  <si>
+    <t>6ae7c8f8-7272-4a7f-a7c3-0fa2534bb2eb</t>
+  </si>
+  <si>
+    <t>Unshielded Twisted Pair</t>
+  </si>
+  <si>
+    <t>UTP</t>
+  </si>
+  <si>
+    <t>Copper cable for telecom and data.</t>
+  </si>
+  <si>
+    <t>e3c44b09-c5d7-457c-8c50-5a06efff1262</t>
+  </si>
+  <si>
+    <t>Microwave Link</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Wireless line-of-sight telecom link.</t>
+  </si>
+  <si>
+    <t>96a1fb7a-2603-483b-8088-2d95755bda08</t>
+  </si>
+  <si>
+    <t>Radio Frequency Link</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Wireless RF link for telecom.</t>
+  </si>
+  <si>
+    <t>838ed57e-44bf-44dc-907f-e6d8136c8ab2</t>
+  </si>
+  <si>
+    <t>Optical Fiber</t>
+  </si>
+  <si>
+    <t>FIBER</t>
+  </si>
+  <si>
+    <t>Fiber optic communication medium.</t>
+  </si>
+  <si>
+    <t>44069fb0-fbe6-4836-ac87-083ab7f44880</t>
+  </si>
+  <si>
+    <t>Satellite Link</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>Satellite-based telecom connection.</t>
+  </si>
+  <si>
+    <t>0c188ba2-689a-4bdc-9848-3b1112516f6b</t>
+  </si>
+  <si>
+    <t>Very High Frequency Link</t>
+  </si>
+  <si>
+    <t>VHF</t>
+  </si>
+  <si>
+    <t>Special frequency-based communication link.</t>
+  </si>
+  <si>
+    <t>daef1801-b782-465e-a973-a9e4358e2e92</t>
+  </si>
+  <si>
+    <t>Telephone Exchange (Exch.)</t>
+  </si>
+  <si>
+    <t>EXCH</t>
+  </si>
+  <si>
+    <t>Central switching facility that connects subscriber lines and trunk links.</t>
+  </si>
+  <si>
+    <t>a6e36125-cd80-45a1-99f5-ae4b445a6880</t>
+  </si>
+  <si>
+    <t>BTS (running over radiolink)</t>
+  </si>
+  <si>
+    <t>BTS-RL</t>
+  </si>
+  <si>
+    <t>BTS whose backhaul is microwave / radiolink (non-fiber backhaul).</t>
+  </si>
+  <si>
+    <t>d749692f-5147-49b5-b1cf-8be443ad2de2</t>
+  </si>
+  <si>
+    <t>Customer Premises</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Subscriber location (home/business) — customer termination equipment/site.</t>
+  </si>
+  <si>
+    <t>6458a347-e80c-4a62-9357-551487a07e3a</t>
+  </si>
+  <si>
+    <t>Gram Panchayat</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Rural/local community aggregation point for last-mile access.</t>
+  </si>
+  <si>
+    <t>de9ccacb-2080-400e-8c57-2e2cf729f724</t>
+  </si>
+  <si>
+    <t>Backhaul Hub / Block HQ</t>
+  </si>
+  <si>
+    <t>BHQ</t>
+  </si>
+  <si>
+    <t>Aggregation/backhaul hub or branch headquarters for operations &amp; routing.</t>
+  </si>
+  <si>
+    <t>ad56dd60-f014-464b-84b9-a090ed843fab</t>
+  </si>
+  <si>
+    <t>Metro Access Aggregation Node</t>
+  </si>
+  <si>
+    <t>MAAN</t>
+  </si>
+  <si>
+    <t>Aggregation node used in metro rings before reaching core/backbone.</t>
+  </si>
+  <si>
+    <t>95f63633-fd4e-4018-b2f0-dea8ad3a8494</t>
+  </si>
+  <si>
+    <t>2F Unarmored</t>
+  </si>
+  <si>
+    <t>2F-U</t>
+  </si>
+  <si>
+    <t>Two-core unarmored optical fiber cable (for ducts/aerial).</t>
+  </si>
+  <si>
+    <t>4d8318a9-4901-40f5-b50c-2f8edad7796d</t>
+  </si>
+  <si>
+    <t>Fiber Distribution Hub (FDH)</t>
+  </si>
+  <si>
+    <t>FDH</t>
+  </si>
+  <si>
+    <t>Street/field cabinet that distributes fibers to subscribers (PON splitters).</t>
+  </si>
+  <si>
+    <t>04bb13be-c2c6-47dd-a5f3-013f37c08719</t>
+  </si>
+  <si>
+    <t>Distribution Point / Street Cabinet</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Local distribution cabinet connecting feeder to drop cables.</t>
+  </si>
+  <si>
+    <t>96ff54ab-c96f-470e-92d6-2f5780438e81</t>
+  </si>
+  <si>
+    <t>multiplexer</t>
+  </si>
+  <si>
+    <t>MUX</t>
+  </si>
+  <si>
+    <t>Splits a multiplexed signal into its components.</t>
+  </si>
+  <si>
+    <t>20062f91-1de9-43a9-aaae-a9eee082d0e2</t>
+  </si>
+  <si>
+    <t>Compact Passive Access Node</t>
+  </si>
+  <si>
+    <t>CPAN Node</t>
+  </si>
+  <si>
+    <t>Compact Passive Access Node (used in access networks for broadband/FTTH aggregation)</t>
+  </si>
+  <si>
+    <t>5207d6b0-10ff-4c8d-b5e0-0ce9cc2e5230</t>
+  </si>
+  <si>
+    <t>Digital Cross-Connect</t>
+  </si>
+  <si>
+    <t>DXC Node</t>
+  </si>
+  <si>
+    <t>Junction site with large cross-connections</t>
+  </si>
+  <si>
+    <t>c3c10305-215a-4efa-8770-2d8846f4e888</t>
+  </si>
+  <si>
+    <t>Optical Amplifier Node</t>
+  </si>
+  <si>
+    <t>OAN Node</t>
+  </si>
+  <si>
+    <t>If the SDH shelf is paired with amplifier equipment for boosting signal only.</t>
+  </si>
+  <si>
+    <t>0966c005-3306-4a7a-9933-45dd1d8e91b4</t>
+  </si>
+  <si>
+    <t>Regenerator</t>
+  </si>
+  <si>
+    <t>Regenerator Node</t>
+  </si>
+  <si>
+    <t>For old SDH without optical amplification.</t>
+  </si>
+  <si>
+    <t>df4fb383-2fcf-4171-9571-0566863778af</t>
+  </si>
+  <si>
+    <t>6F Unarmored</t>
+  </si>
+  <si>
+    <t>6F-U</t>
+  </si>
+  <si>
+    <t>Six-core unarmored optical fiber cable (for ducts/aerial).</t>
+  </si>
+  <si>
+    <t>aad2da41-7496-4048-a004-a6958ec4ff79</t>
+  </si>
+  <si>
+    <t>12F Unarmored</t>
+  </si>
+  <si>
+    <t>12F-U</t>
+  </si>
+  <si>
+    <t>Twelve-core unarmored optical fiber cable.</t>
+  </si>
+  <si>
+    <t>e137552b-9ae2-442b-bcc2-c435d7d64ba1</t>
+  </si>
+  <si>
+    <t>Base Transceiver Station</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>Mobile radio site / cell tower serving a cell area.</t>
+  </si>
+  <si>
+    <t>f45e7454-2b12-4607-886b-f463b56fab98</t>
+  </si>
+  <si>
+    <t>Broadband Services</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BSNL FTTH and DSL broadband.</t>
+  </si>
+  <si>
+    <t>3e347a50-468a-4006-b0d2-e1ba90f461ea</t>
+  </si>
+  <si>
+    <t>Enterprise Services</t>
+  </si>
+  <si>
+    <t>ENT</t>
+  </si>
+  <si>
+    <t>Leased lines, MPLS VPN for corporate customers.</t>
+  </si>
+  <si>
+    <t>581b175e-98f8-4768-b1be-26c871a8335b</t>
+  </si>
+  <si>
+    <t>24F Unarmored</t>
+  </si>
+  <si>
+    <t>24F-U</t>
+  </si>
+  <si>
+    <t>Twenty-four core unarmored optical fiber cable.</t>
+  </si>
+  <si>
+    <t>84e8ba18-eedc-4eae-aaa4-e6a82400849d</t>
+  </si>
+  <si>
+    <t>48F Unarmored</t>
+  </si>
+  <si>
+    <t>48F-U</t>
+  </si>
+  <si>
+    <t>Forty-eight core unarmored optical fiber cable.</t>
+  </si>
+  <si>
+    <t>2ecb77f4-d9ff-4300-ab99-6118ad220ce1</t>
+  </si>
+  <si>
+    <t>96F Unarmored</t>
+  </si>
+  <si>
+    <t>96F-U</t>
+  </si>
+  <si>
+    <t>Ninety-six core unarmored optical fiber cable.</t>
+  </si>
+  <si>
+    <t>9735f097-e10e-40e6-ba15-b2dee2e76b80</t>
+  </si>
+  <si>
+    <t>288F Unarmored</t>
+  </si>
+  <si>
+    <t>288F-U</t>
+  </si>
+  <si>
+    <t>Two-hundred eighty-eight core unarmored optical fiber cable.</t>
+  </si>
+  <si>
+    <t>53df8996-fb6a-4257-afc8-a5269f23b585</t>
+  </si>
+  <si>
+    <t>6F Armored</t>
+  </si>
+  <si>
+    <t>6F-A</t>
+  </si>
+  <si>
+    <t>Six-core steel-armored optical fiber cable for underground routes.</t>
+  </si>
+  <si>
+    <t>9bb020d2-3cdd-441e-b322-949df3058ebd</t>
+  </si>
+  <si>
+    <t>12F Armored</t>
+  </si>
+  <si>
+    <t>12F-A</t>
+  </si>
+  <si>
+    <t>Twelve-core steel-armored optical fiber cable.</t>
+  </si>
+  <si>
+    <t>315fc414-ba42-477f-afa6-161df09600c3</t>
+  </si>
+  <si>
+    <t>24F Armored</t>
+  </si>
+  <si>
+    <t>24F-A</t>
+  </si>
+  <si>
+    <t>Twenty-four core steel-armored optical fiber cable.</t>
+  </si>
+  <si>
+    <t>488275fc-fe52-45bd-95df-3fbed2125c33</t>
+  </si>
+  <si>
+    <t>48F Armored</t>
+  </si>
+  <si>
+    <t>48F-A</t>
+  </si>
+  <si>
+    <t>Forty-eight core steel-armored optical fiber cable.</t>
+  </si>
+  <si>
+    <t>1b3fc06b-9948-4232-8a2c-caec58f780aa</t>
+  </si>
+  <si>
+    <t>96F Armored</t>
+  </si>
+  <si>
+    <t>96F-A</t>
+  </si>
+  <si>
+    <t>Ninety-six core steel-armored optical fiber cable.</t>
+  </si>
+  <si>
+    <t>e8c51bba-9f19-4173-9aa2-5ef523df270c</t>
+  </si>
+  <si>
+    <t>288F Armored</t>
+  </si>
+  <si>
+    <t>288F-A</t>
+  </si>
+  <si>
+    <t>Two-hundred eighty-eight core steel-armored optical fiber cable.</t>
+  </si>
+  <si>
+    <t>a946aab1-ab85-4619-bd16-49a8a951fd85</t>
+  </si>
+  <si>
+    <t>STM-16 Port</t>
+  </si>
+  <si>
+    <t>STM16</t>
+  </si>
+  <si>
+    <t>2.5 Gbps optical interface.</t>
+  </si>
+  <si>
+    <t>3de66615-3963-4edc-98ad-a2f08eda5417</t>
+  </si>
+  <si>
+    <t>Fast Ethernet Port</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>100 Mbps Ethernet.</t>
+  </si>
+  <si>
+    <t>14888b49-2f7d-4dbd-93c2-b19dcafbcd8c</t>
+  </si>
+  <si>
+    <t>10 Gigabit Ethernet Port</t>
+  </si>
+  <si>
+    <t>10GE</t>
+  </si>
+  <si>
+    <t>High-capacity Ethernet port.</t>
+  </si>
+  <si>
+    <t>6c9460cb-22dd-4457-82e3-0ccebe0f3afc</t>
+  </si>
+  <si>
+    <t>100 Gigabit Ethernet Port</t>
+  </si>
+  <si>
+    <t>100GE</t>
+  </si>
+  <si>
+    <t>Ultra high-capacity Ethernet port.</t>
+  </si>
+  <si>
+    <t>f50ef056-24c8-4287-b9c0-99e91af68c59</t>
+  </si>
+  <si>
+    <t>STM-4 Port</t>
+  </si>
+  <si>
+    <t>STM4</t>
+  </si>
+  <si>
+    <t>622 Mbps optical interface.</t>
+  </si>
+  <si>
+    <t>901fa4cc-a2b6-4404-a578-09da1740868f</t>
+  </si>
+  <si>
+    <t>STM-64 Port</t>
+  </si>
+  <si>
+    <t>STM64</t>
+  </si>
+  <si>
+    <t>10 Gbps optical interface.</t>
+  </si>
+  <si>
+    <t>f4c1f4d0-e9d0-426d-9fc1-ec34e3b80984</t>
+  </si>
+  <si>
+    <t>Gigabit Ethernet Port</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>1 Gbps Ethernet.</t>
+  </si>
+  <si>
+    <t>4b86eede-d502-4368-85c1-8e68d9b50282</t>
+  </si>
+  <si>
+    <t>40 Gigabit Ethernet Port</t>
+  </si>
+  <si>
+    <t>40GE</t>
+  </si>
+  <si>
+    <t>Very high-capacity Ethernet port.</t>
+  </si>
+  <si>
+    <t>58129d20-5fcb-4171-b641-80c6aa08e2ba</t>
+  </si>
+  <si>
+    <t>RING_TYPES</t>
+  </si>
+  <si>
+    <t>Bidirectional Line Switched Ring</t>
+  </si>
+  <si>
+    <t>BLSR</t>
+  </si>
+  <si>
+    <t>SONET/SDH protection switching topology.</t>
+  </si>
+  <si>
+    <t>cc3cebe7-5419-4806-8d3a-6405cf00ecbb</t>
+  </si>
+  <si>
+    <t>Mesh Network Topology</t>
+  </si>
+  <si>
+    <t>MESH</t>
+  </si>
+  <si>
+    <t>Multiple interlinked nodes without a strict ring.</t>
+  </si>
+  <si>
+    <t>18429ead-ad6a-46aa-8155-2b418cb5def5</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>LNR</t>
+  </si>
+  <si>
+    <t>Linear configuration.</t>
+  </si>
+  <si>
+    <t>2970fab5-24ed-47d3-b0c1-42aca2d11c79</t>
+  </si>
+  <si>
+    <t>Unidirectional Path Switched Ring</t>
+  </si>
+  <si>
+    <t>UPSR</t>
+  </si>
+  <si>
+    <t>Ring topology with unidirectional traffic flow.</t>
+  </si>
+  <si>
+    <t>7f05c55b-9306-46b1-bb96-6e2e481a43fd</t>
+  </si>
+  <si>
+    <t>Point-to-Point Ring</t>
+  </si>
+  <si>
+    <t>PTPR</t>
+  </si>
+  <si>
+    <t>Simplified two-node ring configuration.</t>
+  </si>
+  <si>
+    <t>0dfc3ef0-d661-458a-b0b7-2b8b0975b6dd</t>
+  </si>
+  <si>
+    <t>Multiplex Section Shared Protection Ring</t>
+  </si>
+  <si>
+    <t>MS-SPRing</t>
+  </si>
+  <si>
+    <t>BSNL’s protection scheme in SDH rings.</t>
+  </si>
+  <si>
+    <t>2f15a2f0-0433-4810-bdb7-375edf9a1413</t>
+  </si>
+  <si>
+    <t>SFP_TYPES</t>
+  </si>
+  <si>
+    <t>1G SFP Multi Mode</t>
+  </si>
+  <si>
+    <t>SFP1GMM</t>
+  </si>
+  <si>
+    <t>1Gbps optical module for MMF.</t>
+  </si>
+  <si>
+    <t>ae96254a-dffe-4f72-84be-3b50d0929535</t>
+  </si>
+  <si>
+    <t>10G SFP+ Multi Mode</t>
+  </si>
+  <si>
+    <t>SFP10GMM</t>
+  </si>
+  <si>
+    <t>10Gbps optical module for MMF.</t>
+  </si>
+  <si>
+    <t>5afbb170-7321-4527-8af8-68a175a856c9</t>
+  </si>
+  <si>
+    <t>Dense Wavelength Division Multiplex SFP</t>
+  </si>
+  <si>
+    <t>DWDMSFP</t>
+  </si>
+  <si>
+    <t>DWDM optical module.</t>
+  </si>
+  <si>
+    <t>29ab5eda-735f-40c5-a8bb-789a0d8c13a2</t>
+  </si>
+  <si>
+    <t>Quad Small Form-factor Pluggable</t>
+  </si>
+  <si>
+    <t>QSFP</t>
+  </si>
+  <si>
+    <t>High-capacity optical module for 40G/100G.</t>
+  </si>
+  <si>
+    <t>833a0283-bbd9-4a3f-afc3-06f15053288f</t>
+  </si>
+  <si>
+    <t>1G SFP Single Mode</t>
+  </si>
+  <si>
+    <t>SFP1GSM</t>
+  </si>
+  <si>
+    <t>1Gbps optical module for SMF.</t>
+  </si>
+  <si>
+    <t>982d70b1-f5c1-471a-ae07-51b9cd737859</t>
+  </si>
+  <si>
+    <t>10G SFP+ Single Mode</t>
+  </si>
+  <si>
+    <t>SFP10GSM</t>
+  </si>
+  <si>
+    <t>10Gbps optical module for SMF.</t>
+  </si>
+  <si>
+    <t>79266904-d231-46f0-809b-38e00f8dc2e2</t>
+  </si>
+  <si>
+    <t>Coarse Wavelength Division Multiplex SFP</t>
+  </si>
+  <si>
+    <t>CWDMSFP</t>
+  </si>
+  <si>
+    <t>CWDM optical module.</t>
+  </si>
+  <si>
+    <t>006bbcae-b141-416f-9f3a-8ca152190df9</t>
+  </si>
+  <si>
+    <t>Bidirectional SFP</t>
+  </si>
+  <si>
+    <t>BIDISFP</t>
+  </si>
+  <si>
+    <t>Single fiber bi-directional optical module.</t>
+  </si>
+  <si>
+    <t>1c5673a9-1fab-4d4c-baa5-ceb73b1993dd</t>
+  </si>
+  <si>
+    <t>Next Generation SDH</t>
+  </si>
+  <si>
+    <t>NGSDH</t>
+  </si>
+  <si>
+    <t>Enhanced SDH with Ethernet over SDH support.</t>
+  </si>
+  <si>
+    <t>fc077b05-1bfc-414c-9549-13b0f6d3e230</t>
+  </si>
+  <si>
     <t>Transmission Nodes</t>
   </si>
   <si>
-    <t>ADM Node</t>
+    <t>TX Node</t>
   </si>
   <si>
     <t>Intermediate add/drop site</t>
   </si>
   <si>
     <t>f6cdce1d-fe11-4d40-8866-c509307f6150</t>
-  </si>
-  <si>
-    <t>Baseband Unit</t>
-  </si>
-  <si>
-    <t>BBU</t>
-  </si>
-  <si>
-    <t>BBUs are typically part of BSNL’s 4G/5G RAN (Radio Access Network), handling baseband processing for cellular signals. Their integration with CPAN/MAAN would align with BSNL’s shift toward IP-based aggregation</t>
-  </si>
-  <si>
-    <t>944f170d-da50-41e6-9040-dea5f7bf9dfa</t>
-  </si>
-  <si>
-    <t>SPLICE_TYPES</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>A direct, one-to-one connection between two fibers.</t>
-  </si>
-  <si>
-    <t>a54cf3ef-aabf-4c07-a611-f297ee78136e</t>
-  </si>
-  <si>
-    <t>t_joint</t>
-  </si>
-  <si>
-    <t>tj</t>
-  </si>
-  <si>
-    <t>A splice that connects one fiber to two or more other fibers (e.g., using a splitter)</t>
-  </si>
-  <si>
-    <t>764fb14f-c510-454c-b341-045e3337200c</t>
-  </si>
-  <si>
-    <t>cross</t>
-  </si>
-  <si>
-    <t>crs</t>
-  </si>
-  <si>
-    <t>A connection where fibers are intentionally crossed (e.g., fiber 1 to fiber 2).</t>
-  </si>
-  <si>
-    <t>a1396206-9345-4b65-b7cb-b079e9e2731e</t>
-  </si>
-  <si>
-    <t>2F Armored</t>
-  </si>
-  <si>
-    <t>2F-A</t>
-  </si>
-  <si>
-    <t>Two-core steel-armored optical fiber cable for underground routes.</t>
-  </si>
-  <si>
-    <t>d6d2e8dc-eb8b-4dde-ae35-b51e66223d89</t>
-  </si>
-  <si>
-    <t>MEDIA_TYPES</t>
-  </si>
-  <si>
-    <t>Coaxial Cable</t>
-  </si>
-  <si>
-    <t>COAX</t>
-  </si>
-  <si>
-    <t>Cable TV and RF applications.</t>
-  </si>
-  <si>
-    <t>72068662-ba21-4879-b1c3-b76e5f31d63b</t>
-  </si>
-  <si>
-    <t>BUSINESS_AREA_TYPE</t>
-  </si>
-  <si>
-    <t>National Long Distance</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>Domestic long-distance telecom service.</t>
-  </si>
-  <si>
-    <t>3367a4e6-16e0-40d2-b7c9-7f21c96f4dc6</t>
-  </si>
-  <si>
-    <t>Retail Fixed Line</t>
-  </si>
-  <si>
-    <t>RETAIL</t>
-  </si>
-  <si>
-    <t>Landline and basic voice services.</t>
-  </si>
-  <si>
-    <t>3be43529-ead7-4052-9134-5d7df9d3d800</t>
-  </si>
-  <si>
-    <t>Mobile Services</t>
-  </si>
-  <si>
-    <t>MOB</t>
-  </si>
-  <si>
-    <t>BSNL GSM/4G/5G mobile offerings.</t>
-  </si>
-  <si>
-    <t>12e0d487-c11c-4432-89f4-3347070046ed</t>
-  </si>
-  <si>
-    <t>International Long Distance</t>
-  </si>
-  <si>
-    <t>ILD</t>
-  </si>
-  <si>
-    <t>International telecom connectivity.</t>
-  </si>
-  <si>
-    <t>d7600972-15b4-40e8-959c-56e21df24adf</t>
-  </si>
-  <si>
-    <t>IP Television</t>
-  </si>
-  <si>
-    <t>IPTV</t>
-  </si>
-  <si>
-    <t>Video streaming and IPTV services.</t>
-  </si>
-  <si>
-    <t>f4747aaa-75f3-4ac0-b950-57569e208189</t>
-  </si>
-  <si>
-    <t>PORT_TYPES</t>
-  </si>
-  <si>
-    <t>STM-1 Port</t>
-  </si>
-  <si>
-    <t>STM1</t>
-  </si>
-  <si>
-    <t>155 Mbps optical interface in SDH.</t>
-  </si>
-  <si>
-    <t>7be2cd28-a794-4f98-b2aa-31ea6c1c6edc</t>
-  </si>
-  <si>
-    <t>MAINTENANCE_AREA_TYPES</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>ZONE</t>
-  </si>
-  <si>
-    <t>The biggest operational region in BSNL.Example: East Zone, South Zone, North Zone, West Zone.Each Zone contains multiple Circles.</t>
-  </si>
-  <si>
-    <t>3e555c07-b3c9-4c38-ba5a-b5a0476edc55</t>
-  </si>
-  <si>
-    <t>SSA (Secondary Switching Area)</t>
-  </si>
-  <si>
-    <t>SSA</t>
-  </si>
-  <si>
-    <t>District-level telecom maintenance unit.Example: Kolkata SSA, Malda SSA.Each SSA contains multiple Divisions/Sub-Divisions.</t>
-  </si>
-  <si>
-    <t>a786b612-5407-4517-a320-99a210a1ba13</t>
-  </si>
-  <si>
-    <t>Sub-Division</t>
-  </si>
-  <si>
-    <t>SUBDIV</t>
-  </si>
-  <si>
-    <t>Smaller operational units inside an DIVISION for field maintenance.</t>
-  </si>
-  <si>
-    <t>d2d2f881-26d2-4942-8347-7c0d9b9acbbf</t>
-  </si>
-  <si>
-    <t>Specialized Centers</t>
-  </si>
-  <si>
-    <t>SPECIALIZED</t>
-  </si>
-  <si>
-    <t>parallel structure.Like NOC (Network Operations Center) – Centralized monitoring hub, MSC (Mobile Switching Center) – For mobile network control, TXM Units – Transmission maintenance teams.</t>
-  </si>
-  <si>
-    <t>14b6413a-2b8a-4afa-a3a7-6d6a6deb7d43</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>CIRCLE</t>
-  </si>
-  <si>
-    <t>State/UT-level operational unit.Example: West Bengal Circle, Kerala Circle, Tamil Nadu Circle.Each Circle contains multiple SSAs.</t>
-  </si>
-  <si>
-    <t>72c229f6-2919-41cc-b5cc-911779aa9dc3</t>
-  </si>
-  <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>DIV</t>
-  </si>
-  <si>
-    <t>Smaller operational units inside an SSA for field maintenance.Often responsible for a cluster of exchanges or optical routes.</t>
-  </si>
-  <si>
-    <t>6ae7c8f8-7272-4a7f-a7c3-0fa2534bb2eb</t>
-  </si>
-  <si>
-    <t>Unshielded Twisted Pair</t>
-  </si>
-  <si>
-    <t>UTP</t>
-  </si>
-  <si>
-    <t>Copper cable for telecom and data.</t>
-  </si>
-  <si>
-    <t>e3c44b09-c5d7-457c-8c50-5a06efff1262</t>
-  </si>
-  <si>
-    <t>Microwave Link</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Wireless line-of-sight telecom link.</t>
-  </si>
-  <si>
-    <t>96a1fb7a-2603-483b-8088-2d95755bda08</t>
-  </si>
-  <si>
-    <t>Radio Frequency Link</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Wireless RF link for telecom.</t>
-  </si>
-  <si>
-    <t>838ed57e-44bf-44dc-907f-e6d8136c8ab2</t>
-  </si>
-  <si>
-    <t>Optical Fiber</t>
-  </si>
-  <si>
-    <t>FIBER</t>
-  </si>
-  <si>
-    <t>Fiber optic communication medium.</t>
-  </si>
-  <si>
-    <t>44069fb0-fbe6-4836-ac87-083ab7f44880</t>
-  </si>
-  <si>
-    <t>Satellite Link</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
-    <t>Satellite-based telecom connection.</t>
-  </si>
-  <si>
-    <t>0c188ba2-689a-4bdc-9848-3b1112516f6b</t>
-  </si>
-  <si>
-    <t>Very High Frequency Link</t>
-  </si>
-  <si>
-    <t>VHF</t>
-  </si>
-  <si>
-    <t>Special frequency-based communication link.</t>
-  </si>
-  <si>
-    <t>daef1801-b782-465e-a973-a9e4358e2e92</t>
-  </si>
-  <si>
-    <t>Telephone Exchange (Exch.)</t>
-  </si>
-  <si>
-    <t>EXCH</t>
-  </si>
-  <si>
-    <t>Central switching facility that connects subscriber lines and trunk links.</t>
-  </si>
-  <si>
-    <t>a6e36125-cd80-45a1-99f5-ae4b445a6880</t>
-  </si>
-  <si>
-    <t>BTS (running over radiolink)</t>
-  </si>
-  <si>
-    <t>BTS-RL</t>
-  </si>
-  <si>
-    <t>BTS whose backhaul is microwave / radiolink (non-fiber backhaul).</t>
-  </si>
-  <si>
-    <t>d749692f-5147-49b5-b1cf-8be443ad2de2</t>
-  </si>
-  <si>
-    <t>Customer Premises</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>Subscriber location (home/business) — customer termination equipment/site.</t>
-  </si>
-  <si>
-    <t>6458a347-e80c-4a62-9357-551487a07e3a</t>
-  </si>
-  <si>
-    <t>Gram Panchayat</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>Rural/local community aggregation point for last-mile access.</t>
-  </si>
-  <si>
-    <t>de9ccacb-2080-400e-8c57-2e2cf729f724</t>
-  </si>
-  <si>
-    <t>Backhaul Hub / Block HQ</t>
-  </si>
-  <si>
-    <t>BHQ</t>
-  </si>
-  <si>
-    <t>Aggregation/backhaul hub or branch headquarters for operations &amp; routing.</t>
-  </si>
-  <si>
-    <t>ad56dd60-f014-464b-84b9-a090ed843fab</t>
-  </si>
-  <si>
-    <t>Metro Access Aggregation Node</t>
-  </si>
-  <si>
-    <t>MAAN</t>
-  </si>
-  <si>
-    <t>Aggregation node used in metro rings before reaching core/backbone.</t>
-  </si>
-  <si>
-    <t>95f63633-fd4e-4018-b2f0-dea8ad3a8494</t>
-  </si>
-  <si>
-    <t>2F Unarmored</t>
-  </si>
-  <si>
-    <t>2F-U</t>
-  </si>
-  <si>
-    <t>Two-core unarmored optical fiber cable (for ducts/aerial).</t>
-  </si>
-  <si>
-    <t>4d8318a9-4901-40f5-b50c-2f8edad7796d</t>
-  </si>
-  <si>
-    <t>Fiber Distribution Hub (FDH)</t>
-  </si>
-  <si>
-    <t>FDH</t>
-  </si>
-  <si>
-    <t>Street/field cabinet that distributes fibers to subscribers (PON splitters).</t>
-  </si>
-  <si>
-    <t>04bb13be-c2c6-47dd-a5f3-013f37c08719</t>
-  </si>
-  <si>
-    <t>Distribution Point / Street Cabinet</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>Local distribution cabinet connecting feeder to drop cables.</t>
-  </si>
-  <si>
-    <t>96ff54ab-c96f-470e-92d6-2f5780438e81</t>
-  </si>
-  <si>
-    <t>multiplexer</t>
-  </si>
-  <si>
-    <t>MUX</t>
-  </si>
-  <si>
-    <t>Splits a multiplexed signal into its components.</t>
-  </si>
-  <si>
-    <t>20062f91-1de9-43a9-aaae-a9eee082d0e2</t>
-  </si>
-  <si>
-    <t>Compact Passive Access Node</t>
-  </si>
-  <si>
-    <t>CPAN Node</t>
-  </si>
-  <si>
-    <t>Compact Passive Access Node (used in access networks for broadband/FTTH aggregation)</t>
-  </si>
-  <si>
-    <t>5207d6b0-10ff-4c8d-b5e0-0ce9cc2e5230</t>
-  </si>
-  <si>
-    <t>Digital Cross-Connect</t>
-  </si>
-  <si>
-    <t>DXC Node</t>
-  </si>
-  <si>
-    <t>Junction site with large cross-connections</t>
-  </si>
-  <si>
-    <t>c3c10305-215a-4efa-8770-2d8846f4e888</t>
-  </si>
-  <si>
-    <t>Optical Amplifier Node</t>
-  </si>
-  <si>
-    <t>OAN Node</t>
-  </si>
-  <si>
-    <t>If the SDH shelf is paired with amplifier equipment for boosting signal only.</t>
-  </si>
-  <si>
-    <t>0966c005-3306-4a7a-9933-45dd1d8e91b4</t>
-  </si>
-  <si>
-    <t>Regenerator</t>
-  </si>
-  <si>
-    <t>Regenerator Node</t>
-  </si>
-  <si>
-    <t>For old SDH without optical amplification.</t>
-  </si>
-  <si>
-    <t>df4fb383-2fcf-4171-9571-0566863778af</t>
-  </si>
-  <si>
-    <t>6F Unarmored</t>
-  </si>
-  <si>
-    <t>6F-U</t>
-  </si>
-  <si>
-    <t>Six-core unarmored optical fiber cable (for ducts/aerial).</t>
-  </si>
-  <si>
-    <t>aad2da41-7496-4048-a004-a6958ec4ff79</t>
-  </si>
-  <si>
-    <t>12F Unarmored</t>
-  </si>
-  <si>
-    <t>12F-U</t>
-  </si>
-  <si>
-    <t>Twelve-core unarmored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>e137552b-9ae2-442b-bcc2-c435d7d64ba1</t>
-  </si>
-  <si>
-    <t>Base Transceiver Station</t>
-  </si>
-  <si>
-    <t>BTS</t>
-  </si>
-  <si>
-    <t>Mobile radio site / cell tower serving a cell area.</t>
-  </si>
-  <si>
-    <t>f45e7454-2b12-4607-886b-f463b56fab98</t>
-  </si>
-  <si>
-    <t>Broadband Services</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>BSNL FTTH and DSL broadband.</t>
-  </si>
-  <si>
-    <t>3e347a50-468a-4006-b0d2-e1ba90f461ea</t>
-  </si>
-  <si>
-    <t>Enterprise Services</t>
-  </si>
-  <si>
-    <t>ENT</t>
-  </si>
-  <si>
-    <t>Leased lines, MPLS VPN for corporate customers.</t>
-  </si>
-  <si>
-    <t>581b175e-98f8-4768-b1be-26c871a8335b</t>
-  </si>
-  <si>
-    <t>24F Unarmored</t>
-  </si>
-  <si>
-    <t>24F-U</t>
-  </si>
-  <si>
-    <t>Twenty-four core unarmored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>84e8ba18-eedc-4eae-aaa4-e6a82400849d</t>
-  </si>
-  <si>
-    <t>48F Unarmored</t>
-  </si>
-  <si>
-    <t>48F-U</t>
-  </si>
-  <si>
-    <t>Forty-eight core unarmored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>2ecb77f4-d9ff-4300-ab99-6118ad220ce1</t>
-  </si>
-  <si>
-    <t>96F Unarmored</t>
-  </si>
-  <si>
-    <t>96F-U</t>
-  </si>
-  <si>
-    <t>Ninety-six core unarmored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>9735f097-e10e-40e6-ba15-b2dee2e76b80</t>
-  </si>
-  <si>
-    <t>288F Unarmored</t>
-  </si>
-  <si>
-    <t>288F-U</t>
-  </si>
-  <si>
-    <t>Two-hundred eighty-eight core unarmored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>53df8996-fb6a-4257-afc8-a5269f23b585</t>
-  </si>
-  <si>
-    <t>6F Armored</t>
-  </si>
-  <si>
-    <t>6F-A</t>
-  </si>
-  <si>
-    <t>Six-core steel-armored optical fiber cable for underground routes.</t>
-  </si>
-  <si>
-    <t>9bb020d2-3cdd-441e-b322-949df3058ebd</t>
-  </si>
-  <si>
-    <t>12F Armored</t>
-  </si>
-  <si>
-    <t>12F-A</t>
-  </si>
-  <si>
-    <t>Twelve-core steel-armored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>315fc414-ba42-477f-afa6-161df09600c3</t>
-  </si>
-  <si>
-    <t>24F Armored</t>
-  </si>
-  <si>
-    <t>24F-A</t>
-  </si>
-  <si>
-    <t>Twenty-four core steel-armored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>488275fc-fe52-45bd-95df-3fbed2125c33</t>
-  </si>
-  <si>
-    <t>48F Armored</t>
-  </si>
-  <si>
-    <t>48F-A</t>
-  </si>
-  <si>
-    <t>Forty-eight core steel-armored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>1b3fc06b-9948-4232-8a2c-caec58f780aa</t>
-  </si>
-  <si>
-    <t>96F Armored</t>
-  </si>
-  <si>
-    <t>96F-A</t>
-  </si>
-  <si>
-    <t>Ninety-six core steel-armored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>e8c51bba-9f19-4173-9aa2-5ef523df270c</t>
-  </si>
-  <si>
-    <t>288F Armored</t>
-  </si>
-  <si>
-    <t>288F-A</t>
-  </si>
-  <si>
-    <t>Two-hundred eighty-eight core steel-armored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>a946aab1-ab85-4619-bd16-49a8a951fd85</t>
-  </si>
-  <si>
-    <t>STM-16 Port</t>
-  </si>
-  <si>
-    <t>STM16</t>
-  </si>
-  <si>
-    <t>2.5 Gbps optical interface.</t>
-  </si>
-  <si>
-    <t>3de66615-3963-4edc-98ad-a2f08eda5417</t>
-  </si>
-  <si>
-    <t>Fast Ethernet Port</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>100 Mbps Ethernet.</t>
-  </si>
-  <si>
-    <t>14888b49-2f7d-4dbd-93c2-b19dcafbcd8c</t>
-  </si>
-  <si>
-    <t>10 Gigabit Ethernet Port</t>
-  </si>
-  <si>
-    <t>10GE</t>
-  </si>
-  <si>
-    <t>High-capacity Ethernet port.</t>
-  </si>
-  <si>
-    <t>6c9460cb-22dd-4457-82e3-0ccebe0f3afc</t>
-  </si>
-  <si>
-    <t>100 Gigabit Ethernet Port</t>
-  </si>
-  <si>
-    <t>100GE</t>
-  </si>
-  <si>
-    <t>Ultra high-capacity Ethernet port.</t>
-  </si>
-  <si>
-    <t>f50ef056-24c8-4287-b9c0-99e91af68c59</t>
-  </si>
-  <si>
-    <t>STM-4 Port</t>
-  </si>
-  <si>
-    <t>STM4</t>
-  </si>
-  <si>
-    <t>622 Mbps optical interface.</t>
-  </si>
-  <si>
-    <t>901fa4cc-a2b6-4404-a578-09da1740868f</t>
-  </si>
-  <si>
-    <t>STM-64 Port</t>
-  </si>
-  <si>
-    <t>STM64</t>
-  </si>
-  <si>
-    <t>10 Gbps optical interface.</t>
-  </si>
-  <si>
-    <t>f4c1f4d0-e9d0-426d-9fc1-ec34e3b80984</t>
-  </si>
-  <si>
-    <t>Gigabit Ethernet Port</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>1 Gbps Ethernet.</t>
-  </si>
-  <si>
-    <t>4b86eede-d502-4368-85c1-8e68d9b50282</t>
-  </si>
-  <si>
-    <t>40 Gigabit Ethernet Port</t>
-  </si>
-  <si>
-    <t>40GE</t>
-  </si>
-  <si>
-    <t>Very high-capacity Ethernet port.</t>
-  </si>
-  <si>
-    <t>58129d20-5fcb-4171-b641-80c6aa08e2ba</t>
-  </si>
-  <si>
-    <t>RING_TYPES</t>
-  </si>
-  <si>
-    <t>Bidirectional Line Switched Ring</t>
-  </si>
-  <si>
-    <t>BLSR</t>
-  </si>
-  <si>
-    <t>SONET/SDH protection switching topology.</t>
-  </si>
-  <si>
-    <t>cc3cebe7-5419-4806-8d3a-6405cf00ecbb</t>
-  </si>
-  <si>
-    <t>Mesh Network Topology</t>
-  </si>
-  <si>
-    <t>MESH</t>
-  </si>
-  <si>
-    <t>Multiple interlinked nodes without a strict ring.</t>
-  </si>
-  <si>
-    <t>18429ead-ad6a-46aa-8155-2b418cb5def5</t>
-  </si>
-  <si>
-    <t>Linear</t>
-  </si>
-  <si>
-    <t>LNR</t>
-  </si>
-  <si>
-    <t>Linear configuration.</t>
-  </si>
-  <si>
-    <t>2970fab5-24ed-47d3-b0c1-42aca2d11c79</t>
-  </si>
-  <si>
-    <t>Unidirectional Path Switched Ring</t>
-  </si>
-  <si>
-    <t>UPSR</t>
-  </si>
-  <si>
-    <t>Ring topology with unidirectional traffic flow.</t>
-  </si>
-  <si>
-    <t>7f05c55b-9306-46b1-bb96-6e2e481a43fd</t>
-  </si>
-  <si>
-    <t>Point-to-Point Ring</t>
-  </si>
-  <si>
-    <t>PTPR</t>
-  </si>
-  <si>
-    <t>Simplified two-node ring configuration.</t>
-  </si>
-  <si>
-    <t>0dfc3ef0-d661-458a-b0b7-2b8b0975b6dd</t>
-  </si>
-  <si>
-    <t>Multiplex Section Shared Protection Ring</t>
-  </si>
-  <si>
-    <t>MS-SPRing</t>
-  </si>
-  <si>
-    <t>BSNL’s protection scheme in SDH rings.</t>
-  </si>
-  <si>
-    <t>2f15a2f0-0433-4810-bdb7-375edf9a1413</t>
-  </si>
-  <si>
-    <t>SFP_TYPES</t>
-  </si>
-  <si>
-    <t>1G SFP Multi Mode</t>
-  </si>
-  <si>
-    <t>SFP1GMM</t>
-  </si>
-  <si>
-    <t>1Gbps optical module for MMF.</t>
-  </si>
-  <si>
-    <t>ae96254a-dffe-4f72-84be-3b50d0929535</t>
-  </si>
-  <si>
-    <t>10G SFP+ Multi Mode</t>
-  </si>
-  <si>
-    <t>SFP10GMM</t>
-  </si>
-  <si>
-    <t>10Gbps optical module for MMF.</t>
-  </si>
-  <si>
-    <t>5afbb170-7321-4527-8af8-68a175a856c9</t>
-  </si>
-  <si>
-    <t>Dense Wavelength Division Multiplex SFP</t>
-  </si>
-  <si>
-    <t>DWDMSFP</t>
-  </si>
-  <si>
-    <t>DWDM optical module.</t>
-  </si>
-  <si>
-    <t>29ab5eda-735f-40c5-a8bb-789a0d8c13a2</t>
-  </si>
-  <si>
-    <t>Quad Small Form-factor Pluggable</t>
-  </si>
-  <si>
-    <t>QSFP</t>
-  </si>
-  <si>
-    <t>High-capacity optical module for 40G/100G.</t>
-  </si>
-  <si>
-    <t>833a0283-bbd9-4a3f-afc3-06f15053288f</t>
-  </si>
-  <si>
-    <t>1G SFP Single Mode</t>
-  </si>
-  <si>
-    <t>SFP1GSM</t>
-  </si>
-  <si>
-    <t>1Gbps optical module for SMF.</t>
-  </si>
-  <si>
-    <t>982d70b1-f5c1-471a-ae07-51b9cd737859</t>
-  </si>
-  <si>
-    <t>10G SFP+ Single Mode</t>
-  </si>
-  <si>
-    <t>SFP10GSM</t>
-  </si>
-  <si>
-    <t>10Gbps optical module for SMF.</t>
-  </si>
-  <si>
-    <t>79266904-d231-46f0-809b-38e00f8dc2e2</t>
-  </si>
-  <si>
-    <t>Coarse Wavelength Division Multiplex SFP</t>
-  </si>
-  <si>
-    <t>CWDMSFP</t>
-  </si>
-  <si>
-    <t>CWDM optical module.</t>
-  </si>
-  <si>
-    <t>006bbcae-b141-416f-9f3a-8ca152190df9</t>
-  </si>
-  <si>
-    <t>Bidirectional SFP</t>
-  </si>
-  <si>
-    <t>BIDISFP</t>
-  </si>
-  <si>
-    <t>Single fiber bi-directional optical module.</t>
-  </si>
-  <si>
-    <t>1c5673a9-1fab-4d4c-baa5-ceb73b1993dd</t>
-  </si>
-  <si>
-    <t>Next Generation SDH</t>
-  </si>
-  <si>
-    <t>NGSDH</t>
-  </si>
-  <si>
-    <t>Enhanced SDH with Ethernet over SDH support.</t>
-  </si>
-  <si>
-    <t>fc077b05-1bfc-414c-9549-13b0f6d3e230</t>
   </si>
 </sst>
 </file>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>118</v>
@@ -2948,7 +2948,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>16</v>
@@ -2960,7 +2960,7 @@
         <v>45879</v>
       </c>
       <c r="K31" s="8">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>121</v>
@@ -2968,16 +2968,16 @@
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>16</v>
@@ -2995,18 +2995,18 @@
         <v>17</v>
       </c>
       <c r="J32" s="5">
-        <v>45879</v>
+        <v>45934</v>
       </c>
       <c r="K32" s="5">
-        <v>45919</v>
+        <v>45934</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>127</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>131</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>135</v>
@@ -3109,10 +3109,10 @@
         <v>17</v>
       </c>
       <c r="J35" s="8">
-        <v>45934</v>
+        <v>45936</v>
       </c>
       <c r="K35" s="8">
-        <v>45934</v>
+        <v>45936</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>138</v>
@@ -3120,16 +3120,16 @@
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -3147,27 +3147,27 @@
         <v>17</v>
       </c>
       <c r="J36" s="5">
-        <v>45936</v>
+        <v>45879</v>
       </c>
       <c r="K36" s="5">
-        <v>45936</v>
+        <v>45881</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E37" s="7">
         <v>0</v>
@@ -3191,12 +3191,12 @@
         <v>45881</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>149</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>153</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>157</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>161</v>
@@ -3348,16 +3348,16 @@
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -3381,21 +3381,21 @@
         <v>45881</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E43" s="7">
         <v>0</v>
@@ -3419,12 +3419,12 @@
         <v>45881</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>175</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>179</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>183</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>187</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>191</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>195</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>199</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>203</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>207</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>211</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>215</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>219</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>243</v>
@@ -4097,10 +4097,10 @@
         <v>17</v>
       </c>
       <c r="J61" s="8">
-        <v>45879</v>
+        <v>45936</v>
       </c>
       <c r="K61" s="8">
-        <v>45881</v>
+        <v>45936</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>246</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>247</v>
@@ -4135,10 +4135,10 @@
         <v>17</v>
       </c>
       <c r="J62" s="5">
-        <v>45936</v>
+        <v>45879</v>
       </c>
       <c r="K62" s="5">
-        <v>45936</v>
+        <v>45881</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>250</v>
@@ -4290,7 +4290,7 @@
         <v>45879</v>
       </c>
       <c r="K66" s="5">
-        <v>45881</v>
+        <v>45879</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>266</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>275</v>
@@ -4404,7 +4404,7 @@
         <v>45879</v>
       </c>
       <c r="K69" s="8">
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>278</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>283</v>
@@ -4480,7 +4480,7 @@
         <v>45879</v>
       </c>
       <c r="K71" s="8">
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>286</v>
@@ -4488,7 +4488,7 @@
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>287</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>291</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>295</v>
@@ -4594,7 +4594,7 @@
         <v>45879</v>
       </c>
       <c r="K74" s="5">
-        <v>45889</v>
+        <v>45881</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>298</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="84" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>335</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="85" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>339</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="86" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>343</v>
@@ -5058,7 +5058,7 @@
     </row>
     <row r="87" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>347</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="88" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>351</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="89" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>355</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="90" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>359</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="91" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>363</v>
@@ -5248,16 +5248,16 @@
     </row>
     <row r="92" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>169</v>
+        <v>367</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E92" s="4">
         <v>0</v>
@@ -5281,12 +5281,12 @@
         <v>45881</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>372</v>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="94" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>376</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="95" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>380</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>384</v>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="97" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>388</v>
@@ -5476,16 +5476,16 @@
     </row>
     <row r="98" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E98" s="4">
         <v>0</v>
@@ -5509,12 +5509,12 @@
         <v>45881</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="99" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>397</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="100" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>401</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="101" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>405</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="102" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>409</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="103" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>413</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="104" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>417</v>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>421</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="106" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>396</v>
+        <v>12</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>425</v>
@@ -5798,10 +5798,10 @@
         <v>16</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>17</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>429</v>
@@ -5836,10 +5836,10 @@
         <v>16</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>17</v>
@@ -5848,7 +5848,7 @@
         <v>45879</v>
       </c>
       <c r="K107" s="11">
-        <v>45881</v>
+        <v>45939.48797825231</v>
       </c>
       <c r="L107" s="10" t="s">
         <v>432</v>
